--- a/Progetto_algoritmi_sessione_estiva_2021/Progetto_algoritmi_analisi_sperimentale/Grafici_per_analisi_sperimentale.xlsx
+++ b/Progetto_algoritmi_sessione_estiva_2021/Progetto_algoritmi_analisi_sperimentale/Grafici_per_analisi_sperimentale.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\Progetto_algoritmi_sessione_estiva_2021\Progetto_algoritmi_analisi_sperimentale\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\Progetto_algoritmi_linux\Progetto_algoritmi_sessione_estiva_2021\Progetto_algoritmi_analisi_sperimentale\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -91,10 +91,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -616,25 +616,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>562</c:v>
+                  <c:v>528</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1308</c:v>
+                  <c:v>1358</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5270</c:v>
+                  <c:v>5314</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13272</c:v>
+                  <c:v>13392</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>53238</c:v>
+                  <c:v>53416</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>132846</c:v>
+                  <c:v>132858</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>531370</c:v>
+                  <c:v>532092</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5122,15 +5122,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="Q103" sqref="Q103"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
@@ -5181,10 +5181,10 @@
       <c r="C29" s="1"/>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="4"/>
+      <c r="C31" s="5"/>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
@@ -5259,11 +5259,11 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="B47" s="4" t="s">
+      <c r="A47" s="4"/>
+      <c r="B47" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C47" s="4"/>
+      <c r="C47" s="5"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
@@ -5286,7 +5286,7 @@
         <v>10</v>
       </c>
       <c r="C50" s="3">
-        <v>562</v>
+        <v>528</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
@@ -5294,7 +5294,7 @@
         <v>25</v>
       </c>
       <c r="C51" s="3">
-        <v>1308</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
@@ -5302,7 +5302,7 @@
         <v>100</v>
       </c>
       <c r="C52" s="3">
-        <v>5270</v>
+        <v>5314</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
@@ -5310,7 +5310,7 @@
         <v>250</v>
       </c>
       <c r="C53" s="3">
-        <v>13272</v>
+        <v>13392</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
@@ -5318,7 +5318,7 @@
         <v>1000</v>
       </c>
       <c r="C54" s="3">
-        <v>53238</v>
+        <v>53416</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
@@ -5326,7 +5326,7 @@
         <v>2500</v>
       </c>
       <c r="C55" s="2">
-        <v>132846</v>
+        <v>132858</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
@@ -5334,14 +5334,14 @@
         <v>10000</v>
       </c>
       <c r="C56" s="2">
-        <v>531370</v>
+        <v>532092</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="4"/>
+      <c r="C64" s="5"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="3" t="s">
@@ -5416,10 +5416,10 @@
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C82" s="4"/>
+      <c r="C82" s="5"/>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="3" t="s">
@@ -5494,10 +5494,10 @@
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B101" s="4" t="s">
+      <c r="B101" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C101" s="4"/>
+      <c r="C101" s="5"/>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="3" t="s">
